--- a/BackTest/2020-01-23 BackTest ETC.xlsx
+++ b/BackTest/2020-01-23 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1621.257400000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-1616.517800000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10040</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10040</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-1717.873300000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10100</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10040</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-1616.628400000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10070</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10040</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-1653.033100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10100</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-1653.033100000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10070</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-1665.686100000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10070</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>-1613.441700000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10050</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>1656.464999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10100</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +807,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1077,19 @@
         <v>1694.378799999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10090</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1118,19 @@
         <v>1672.610199999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10090</v>
+      </c>
+      <c r="J19" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1162,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1198,19 @@
         <v>2452.202060503728</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10070</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1239,19 @@
         <v>2452.202060503728</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10090</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1283,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1322,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1361,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1400,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1439,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1478,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1517,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1553,19 @@
         <v>1752.330527534512</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10080</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1597,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1636,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1672,19 @@
         <v>1824.889927534512</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10080</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1716,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1755,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1794,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1833,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1869,19 @@
         <v>1706.037827534512</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10030</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1910,19 @@
         <v>1706.037827534512</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10030</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1951,19 @@
         <v>1706.037827534512</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10030</v>
+      </c>
+      <c r="J40" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1992,19 @@
         <v>2270.617627534512</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10030</v>
+      </c>
+      <c r="J41" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2033,19 @@
         <v>2270.617627534512</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10050</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2074,19 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10050</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2115,19 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10060</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2156,19 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10060</v>
+      </c>
+      <c r="J45" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2197,19 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10060</v>
+      </c>
+      <c r="J46" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2238,19 @@
         <v>2324.804727534512</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10060</v>
+      </c>
+      <c r="J47" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2279,19 @@
         <v>2346.157627534512</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10030</v>
+      </c>
+      <c r="J48" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2320,19 @@
         <v>2480.166027534513</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10060</v>
+      </c>
+      <c r="J49" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2364,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2403,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2442,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2481,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2520,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2559,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2598,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2634,19 @@
         <v>2489.853627534513</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10090</v>
+      </c>
+      <c r="J57" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2675,19 @@
         <v>2489.853627534513</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10050</v>
+      </c>
+      <c r="J58" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2716,19 @@
         <v>2429.103027534513</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10050</v>
+      </c>
+      <c r="J59" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2760,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2796,19 @@
         <v>916.035327534513</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10020</v>
+      </c>
+      <c r="J61" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2837,19 @@
         <v>603.3192275345131</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9975</v>
+      </c>
+      <c r="J62" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2878,19 @@
         <v>710.654027534513</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9940</v>
+      </c>
+      <c r="J63" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2919,19 @@
         <v>745.937727534513</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2960,19 @@
         <v>632.419427534513</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +3001,19 @@
         <v>696.0646275345131</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9995</v>
+      </c>
+      <c r="J66" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,15 +3042,17 @@
         <v>1841.207027534513</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>10000</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>10100</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2635,12 +3083,14 @@
         <v>1841.207027534513</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>10010</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>10100</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2674,10 +3124,14 @@
         <v>1813.093127534513</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J69" t="n">
+        <v>10100</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2711,10 +3165,14 @@
         <v>971.6799275345131</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J70" t="n">
+        <v>10100</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,12 +3206,14 @@
         <v>1015.275127534513</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>9960</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>10100</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2787,12 +3247,14 @@
         <v>1023.817727534513</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>9970</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>10100</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,12 +3288,14 @@
         <v>143.8552275345131</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>10000</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>10100</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2865,12 +3329,14 @@
         <v>306.7676275345131</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>9965</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>10100</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2904,12 +3370,14 @@
         <v>390.1726275345131</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>9980</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>10100</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2943,12 +3411,14 @@
         <v>3867.309535364047</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>10000</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>10100</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2982,12 +3452,14 @@
         <v>3667.309535364047</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>10090</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>10100</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3021,10 +3493,14 @@
         <v>3767.309535364047</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10020</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10100</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,10 +3534,14 @@
         <v>4093.855235364047</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>10050</v>
+      </c>
+      <c r="J79" t="n">
+        <v>10100</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,10 +3575,14 @@
         <v>4189.823035364047</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10130</v>
+      </c>
+      <c r="J80" t="n">
+        <v>10100</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3132,10 +3616,14 @@
         <v>4463.805635364048</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10160</v>
+      </c>
+      <c r="J81" t="n">
+        <v>10100</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3169,10 +3657,14 @@
         <v>4091.430235364048</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10210</v>
+      </c>
+      <c r="J82" t="n">
+        <v>10100</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3209,7 +3701,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>10100</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,7 +3740,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>10100</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,10 +3776,14 @@
         <v>4154.153035364047</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10220</v>
+      </c>
+      <c r="J85" t="n">
+        <v>10100</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3320,7 +3820,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>10100</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3357,7 +3859,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>10100</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,7 +3898,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10100</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3431,7 +3937,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10100</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3468,7 +3976,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10100</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,7 +4015,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>10100</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,7 +4054,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>10100</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3579,7 +4093,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>10100</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,7 +4132,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10100</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,7 +4171,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>10100</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3690,7 +4210,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10100</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,7 +4249,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>10100</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3764,7 +4288,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>10100</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3801,7 +4327,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>10100</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,7 +4366,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>10100</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,7 +4405,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>10100</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,7 +4444,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>10100</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3949,7 +4483,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>10100</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,7 +4522,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10100</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4023,7 +4561,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10100</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,7 +4600,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>10100</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4097,7 +4639,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10100</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,7 +4678,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>10100</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4171,7 +4717,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>10100</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4208,7 +4756,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>10100</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4245,7 +4795,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>10100</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4282,7 +4834,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>10100</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,7 +4873,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>10100</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4356,7 +4912,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10100</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4393,7 +4951,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>10100</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4430,7 +4990,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10100</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4467,7 +5029,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10100</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4504,7 +5068,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10100</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4541,7 +5107,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10100</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4578,7 +5146,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10100</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,7 +5185,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10100</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,7 +5224,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10100</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4689,7 +5263,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10100</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4726,7 +5302,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10100</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,7 +5341,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10100</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,7 +5380,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10100</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4837,7 +5419,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10100</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4874,7 +5458,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10100</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4911,7 +5497,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10100</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4948,7 +5536,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10100</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,7 +5575,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10100</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5022,7 +5614,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10100</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,7 +5653,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10100</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,7 +5692,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10100</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5133,7 +5731,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10100</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,7 +5770,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10100</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,7 +5809,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10100</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,7 +5848,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10100</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,7 +5887,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10100</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,7 +5926,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10100</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5355,7 +5965,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10100</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5392,7 +6004,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10100</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,7 +6043,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10100</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,7 +6082,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10100</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,7 +6121,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10100</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,7 +6160,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10100</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5577,7 +6199,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>10100</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,7 +6238,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10100</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5651,7 +6277,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>10100</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,7 +6316,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>10100</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5725,7 +6355,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>10100</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5762,7 +6394,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>10100</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5799,7 +6433,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>10100</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5836,7 +6472,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>10100</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5873,7 +6511,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>10100</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,7 +6550,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>10100</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,7 +6589,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>10100</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5984,7 +6628,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>10100</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6021,7 +6667,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>10100</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6058,7 +6706,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>10100</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6095,7 +6745,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>10100</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6132,7 +6784,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>10100</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6169,7 +6823,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>10100</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,7 +6862,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>10100</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6243,7 +6901,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>10100</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,7 +6940,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>10100</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6317,7 +6979,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>10100</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6354,7 +7018,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>10100</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6391,7 +7057,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>10100</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6428,7 +7096,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>10100</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6465,7 +7135,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>10100</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6502,7 +7174,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10100</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6539,7 +7213,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>10100</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6576,7 +7252,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>10100</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,7 +7291,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>10100</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6650,7 +7330,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>10100</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6687,7 +7369,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10100</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6724,7 +7408,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10100</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6761,7 +7447,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>10100</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6798,7 +7486,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>10100</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6835,7 +7525,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>10100</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6872,7 +7564,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>10100</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6909,7 +7603,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>10100</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6946,7 +7642,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>10100</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6983,7 +7681,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>10100</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7020,7 +7720,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>10100</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7057,7 +7759,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>10100</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7094,7 +7798,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>10100</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7131,7 +7837,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>10100</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7168,7 +7876,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>10100</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7205,7 +7915,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>10100</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7242,7 +7954,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>10100</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7279,7 +7993,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>10100</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7316,7 +8032,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>10100</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,7 +8071,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>10100</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7390,7 +8110,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>10100</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7427,7 +8149,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>10100</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7464,7 +8188,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>10100</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7501,7 +8227,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>10100</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7538,7 +8266,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>10100</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7575,7 +8305,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>10100</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7612,7 +8344,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>10100</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7649,7 +8383,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>10100</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7686,7 +8422,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>10100</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7723,7 +8461,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>10100</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7760,7 +8500,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>10100</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,7 +8539,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>10100</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7834,7 +8578,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>10100</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7871,7 +8617,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>10100</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7908,7 +8656,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>10100</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7945,7 +8695,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>10100</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7982,7 +8734,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>10100</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8019,7 +8773,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>10100</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8056,7 +8812,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>10100</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8093,7 +8851,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>10100</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8130,7 +8890,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>10100</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8167,7 +8929,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>10100</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8204,7 +8968,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>10100</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8241,7 +9007,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>10100</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8278,7 +9046,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>10100</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8315,7 +9085,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>10100</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8352,7 +9124,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>10100</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8389,7 +9163,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>10100</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8426,7 +9202,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>10100</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8463,7 +9241,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>10100</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8500,7 +9280,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>10100</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,7 +9319,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>10100</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8574,7 +9358,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>10100</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8611,7 +9397,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>10100</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8648,7 +9436,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>10100</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,7 +9475,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>10100</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8722,7 +9514,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>10100</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8759,7 +9553,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>10100</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,7 +9592,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>10100</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8833,7 +9631,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>10100</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8870,7 +9670,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>10100</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8907,7 +9709,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>10100</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8944,7 +9748,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>10100</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8981,7 +9787,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>10100</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9018,7 +9826,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>10100</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,7 +9865,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>10100</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9092,7 +9904,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>10100</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9129,7 +9943,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>10100</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9166,7 +9982,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>10100</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9203,7 +10021,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>10100</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9240,7 +10060,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>10100</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9277,7 +10099,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>10100</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9314,7 +10138,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>10100</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9351,7 +10177,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>10100</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9388,7 +10216,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>10100</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9425,7 +10255,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>10100</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9462,7 +10294,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>10100</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9499,7 +10333,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>10100</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9536,7 +10372,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>10100</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9573,7 +10411,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>10100</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9610,7 +10450,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>10100</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9647,7 +10489,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>10100</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9684,7 +10528,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>10100</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9721,7 +10567,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>10100</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9758,7 +10606,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>10100</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9795,7 +10645,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>10100</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9832,7 +10684,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>10100</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9869,7 +10723,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>10100</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9906,7 +10762,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>10100</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9943,7 +10801,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>10100</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9980,7 +10840,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>10100</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10017,7 +10879,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>10100</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10054,7 +10918,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>10100</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10091,7 +10957,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>10100</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10128,7 +10996,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>10100</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10165,7 +11035,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>10100</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10202,7 +11074,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>10100</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10239,7 +11113,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>10100</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10276,7 +11152,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>10100</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10313,7 +11191,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>10100</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10350,7 +11230,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>10100</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10387,7 +11269,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>10100</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10424,7 +11308,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>10100</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10461,7 +11347,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>10100</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,7 +11386,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>10100</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10535,7 +11425,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>10100</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10572,7 +11464,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>10100</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,7 +11503,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>10100</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10646,7 +11542,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>10100</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10683,7 +11581,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>10100</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10720,7 +11620,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>10100</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10757,7 +11659,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>10100</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10794,7 +11698,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>10100</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10831,7 +11737,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>10100</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10868,7 +11776,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>10100</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10905,7 +11815,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>10100</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10942,7 +11854,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>10100</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10979,7 +11893,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>10100</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11016,7 +11932,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>10100</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11053,7 +11971,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>10100</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11090,7 +12010,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>10100</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11127,7 +12049,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>10100</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11164,7 +12088,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>10100</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11201,7 +12127,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>10100</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11238,7 +12166,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>10100</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11275,7 +12205,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>10100</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11312,7 +12244,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>10100</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11349,7 +12283,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>10100</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11386,7 +12322,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>10100</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11423,7 +12361,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>10100</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11460,7 +12400,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>10100</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11497,7 +12439,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>10100</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11534,7 +12478,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>10100</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11571,7 +12517,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>10100</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11608,7 +12556,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>10100</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11645,7 +12595,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>10100</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11682,7 +12634,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>10100</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11719,7 +12673,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>10100</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11756,7 +12712,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>10100</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11793,7 +12751,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>10100</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11830,7 +12790,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>10100</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11867,7 +12829,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>10100</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11904,7 +12868,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>10100</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11941,7 +12907,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>10100</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11978,7 +12946,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>10100</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12015,7 +12985,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>10100</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12052,7 +13024,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>10100</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12089,7 +13063,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>10100</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12126,7 +13102,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>10100</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12163,7 +13141,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>10100</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12200,7 +13180,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>10100</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12237,7 +13219,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>10100</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12274,7 +13258,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>10100</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12311,7 +13297,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>10100</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12348,7 +13336,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>10100</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12385,7 +13375,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>10100</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12422,7 +13414,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>10100</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12459,7 +13453,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>10100</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12496,7 +13492,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>10100</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,7 +13531,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>10100</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12570,7 +13570,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>10100</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12607,7 +13609,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>10100</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12644,7 +13648,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>10100</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12681,7 +13687,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>10100</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12718,7 +13726,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>10100</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12755,7 +13765,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>10100</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12792,7 +13804,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>10100</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12829,7 +13843,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>10100</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12866,7 +13882,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>10100</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12903,7 +13921,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>10100</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12940,7 +13960,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>10100</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,7 +13999,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>10100</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13014,7 +14038,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>10100</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13051,7 +14077,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>10100</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13085,10 +14113,12 @@
         <v>34589.89674967441</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>10100</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13122,10 +14152,12 @@
         <v>35089.80574967441</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>10100</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13159,10 +14191,12 @@
         <v>36197.62664967441</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>10100</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13196,10 +14230,12 @@
         <v>36197.62664967441</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>10100</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13233,10 +14269,12 @@
         <v>40356.09445445382</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>10100</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13270,10 +14308,12 @@
         <v>36690.79373170425</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>10100</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13307,10 +14347,12 @@
         <v>37067.40353170424</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>10100</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13344,10 +14386,12 @@
         <v>36173.48423170424</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>10100</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13381,10 +14425,12 @@
         <v>36339.21514708886</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>10100</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13421,7 +14467,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>10100</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13458,7 +14506,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>10100</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13495,7 +14545,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>10100</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13532,7 +14584,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>10100</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13566,10 +14620,12 @@
         <v>36082.70562383304</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>10100</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13603,10 +14659,12 @@
         <v>37399.83940057723</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>10100</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13640,10 +14698,12 @@
         <v>37399.83940057723</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>10100</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13677,10 +14737,12 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>10100</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13714,10 +14776,12 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>10100</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13751,10 +14815,12 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>10100</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13791,7 +14857,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>10100</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13828,7 +14896,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>10100</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13862,19 +14932,23 @@
         <v>37219.56210057723</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>10100</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
+        <v>1.052425742574258</v>
+      </c>
+      <c r="M371" t="n">
+        <v>1.00597609561753</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -13899,15 +14973,11 @@
         <v>37219.56210057723</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13936,15 +15006,11 @@
         <v>37219.56210057723</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13973,15 +15039,11 @@
         <v>37287.52290057723</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +15076,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14047,15 +15105,11 @@
         <v>37894.33130057723</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14084,15 +15138,11 @@
         <v>38308.21300057723</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14125,11 +15175,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14162,11 +15208,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14199,11 +15241,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14232,15 +15270,11 @@
         <v>39607.41955948261</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14273,11 +15307,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14306,15 +15336,11 @@
         <v>37747.97695948261</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14343,15 +15369,11 @@
         <v>37526.52165948261</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14380,15 +15402,11 @@
         <v>37354.77185948261</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14417,15 +15435,11 @@
         <v>37589.43515948261</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14454,15 +15468,11 @@
         <v>37328.80385948261</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14491,15 +15501,11 @@
         <v>36615.95877041719</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14528,15 +15534,11 @@
         <v>36625.95877041719</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14565,15 +15567,11 @@
         <v>36855.37107041719</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14602,15 +15600,11 @@
         <v>36855.37107041719</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14639,15 +15633,11 @@
         <v>37396.90087041719</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14676,15 +15666,11 @@
         <v>37229.28657041719</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14713,15 +15699,11 @@
         <v>36424.10337041719</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14750,15 +15732,11 @@
         <v>36333.95807041719</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14787,15 +15765,11 @@
         <v>36333.95807041719</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14824,15 +15798,11 @@
         <v>37856.37637041719</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14861,15 +15831,11 @@
         <v>37856.37637041719</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14898,15 +15864,11 @@
         <v>38335.71737041719</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14935,15 +15897,11 @@
         <v>38515.42537041719</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14972,15 +15930,11 @@
         <v>38515.42537041719</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15009,15 +15963,11 @@
         <v>38226.29007041718</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15046,15 +15996,11 @@
         <v>38275.26427041718</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15083,15 +16029,11 @@
         <v>37993.57477041718</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15120,15 +16062,11 @@
         <v>37517.32687041718</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15157,15 +16095,11 @@
         <v>37735.00567041718</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15194,15 +16128,11 @@
         <v>37735.00567041718</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15231,15 +16161,11 @@
         <v>36767.79427041718</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15268,15 +16194,11 @@
         <v>37254.16767041718</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15305,15 +16227,11 @@
         <v>37513.57617041717</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15342,15 +16260,11 @@
         <v>37665.06257041718</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15383,11 +16297,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15416,15 +16326,11 @@
         <v>38218.62797041718</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15453,15 +16359,11 @@
         <v>38288.37787041718</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15490,15 +16392,11 @@
         <v>38288.37787041718</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15527,15 +16425,11 @@
         <v>38288.37787041718</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15564,15 +16458,11 @@
         <v>38288.37787041718</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15601,15 +16491,11 @@
         <v>37318.37847041718</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15638,15 +16524,11 @@
         <v>37578.80067041718</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15675,15 +16557,11 @@
         <v>37337.02287041717</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15712,15 +16590,11 @@
         <v>37337.02287041717</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15749,15 +16623,11 @@
         <v>37224.48877041718</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15786,15 +16656,11 @@
         <v>37781.1810537661</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15823,15 +16689,11 @@
         <v>36468.7795537661</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15860,15 +16722,11 @@
         <v>37666.54444009569</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15897,15 +16755,11 @@
         <v>37666.19084009569</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15934,15 +16788,11 @@
         <v>37660.17484009569</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15971,15 +16821,11 @@
         <v>37660.17484009569</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16008,15 +16854,11 @@
         <v>37673.29274009568</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16045,15 +16887,11 @@
         <v>37574.08624009568</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16082,15 +16920,11 @@
         <v>37722.71554009568</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16119,15 +16953,11 @@
         <v>37722.71554009568</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16156,15 +16986,11 @@
         <v>38563.37594009568</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16193,15 +17019,11 @@
         <v>38468.78034009568</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16230,15 +17052,11 @@
         <v>38516.01274009568</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16267,15 +17085,11 @@
         <v>38781.28224009569</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16304,15 +17118,11 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16341,15 +17151,11 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16378,15 +17184,11 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16415,15 +17217,11 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16452,15 +17250,11 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16489,15 +17283,11 @@
         <v>40564.19434009569</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16526,15 +17316,11 @@
         <v>40484.08274009569</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16563,15 +17349,11 @@
         <v>42264.92084009569</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16600,15 +17382,11 @@
         <v>45920.29824009569</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16637,15 +17415,11 @@
         <v>45605.07634009569</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16674,15 +17448,11 @@
         <v>45775.11564009569</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16715,11 +17485,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16752,11 +17518,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16789,11 +17551,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16822,15 +17580,11 @@
         <v>46176.72161920845</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16859,15 +17613,11 @@
         <v>47083.17561920844</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16896,15 +17646,11 @@
         <v>46790.78291920845</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16933,15 +17679,11 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16970,15 +17712,11 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17007,15 +17745,11 @@
         <v>47168.24991920845</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17044,15 +17778,11 @@
         <v>45936.65431920845</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17081,15 +17811,11 @@
         <v>45909.87241920845</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17118,15 +17844,11 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17155,15 +17877,11 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17192,16 +17910,14 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
       <c r="M461" t="inlineStr"/>
     </row>
     <row r="462">
@@ -17227,7 +17943,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17260,7 +17976,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17293,7 +18009,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17326,7 +18042,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17359,7 +18075,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17392,7 +18108,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17425,7 +18141,7 @@
         <v>46038.15641920845</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17458,7 +18174,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17491,7 +18207,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17524,7 +18240,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17557,7 +18273,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17590,7 +18306,7 @@
         <v>46702.25221920845</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17986,7 +18702,7 @@
         <v>46598.02682904147</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18019,7 +18735,7 @@
         <v>46779.91352904147</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18052,7 +18768,7 @@
         <v>45259.21222904147</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18085,7 +18801,7 @@
         <v>45477.06762904147</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18118,7 +18834,7 @@
         <v>46286.87672904147</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18151,7 +18867,7 @@
         <v>46286.87672904147</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18184,7 +18900,7 @@
         <v>46286.87672904147</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18217,7 +18933,7 @@
         <v>46431.81049996411</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18250,7 +18966,7 @@
         <v>46431.81049996411</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18283,7 +18999,7 @@
         <v>45868.29575713357</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18316,7 +19032,7 @@
         <v>45405.38205713357</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18349,7 +19065,7 @@
         <v>45408.26105713358</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18382,7 +19098,7 @@
         <v>45408.26105713358</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18745,7 +19461,7 @@
         <v>46795.29152696597</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18778,7 +19494,7 @@
         <v>46800.64112696597</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18811,7 +19527,7 @@
         <v>46799.71292696597</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18844,7 +19560,7 @@
         <v>46799.71292696597</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18877,7 +19593,7 @@
         <v>46799.91943254218</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18910,7 +19626,7 @@
         <v>46705.04593254218</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18943,7 +19659,7 @@
         <v>46713.56741548719</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18976,7 +19692,7 @@
         <v>46013.82701548719</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19009,7 +19725,7 @@
         <v>46063.89731548719</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19042,7 +19758,7 @@
         <v>46063.89731548719</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19075,7 +19791,7 @@
         <v>45739.95481548719</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19108,7 +19824,7 @@
         <v>45839.95481548719</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19141,7 +19857,7 @@
         <v>45446.64211548719</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19174,7 +19890,7 @@
         <v>45446.64211548719</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19207,7 +19923,7 @@
         <v>45662.19911548719</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19240,7 +19956,7 @@
         <v>45785.97227954678</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19273,7 +19989,7 @@
         <v>45673.29697954677</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19306,7 +20022,7 @@
         <v>45957.28747954677</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19339,7 +20055,7 @@
         <v>45957.28747954677</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19372,7 +20088,7 @@
         <v>45957.28747954677</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19405,7 +20121,7 @@
         <v>45607.17312432289</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19438,7 +20154,7 @@
         <v>44763.9380243229</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19471,7 +20187,7 @@
         <v>44763.9380243229</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19504,7 +20220,7 @@
         <v>44680.39886077149</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19537,7 +20253,7 @@
         <v>44680.39886077149</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19570,7 +20286,7 @@
         <v>44680.39886077149</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19603,7 +20319,7 @@
         <v>45215.75546077149</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19636,7 +20352,7 @@
         <v>45293.73146077149</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19669,7 +20385,7 @@
         <v>44126.78806077149</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19702,7 +20418,7 @@
         <v>44890.09436077149</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19735,7 +20451,7 @@
         <v>43954.62716077149</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19768,7 +20484,7 @@
         <v>43970.07276077149</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19801,7 +20517,7 @@
         <v>43411.85976077148</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19834,7 +20550,7 @@
         <v>43411.85976077148</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19867,7 +20583,7 @@
         <v>43902.87166077148</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19900,7 +20616,7 @@
         <v>44038.10936077148</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19933,7 +20649,7 @@
         <v>45022.15466077148</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19966,7 +20682,7 @@
         <v>45038.35306077148</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19999,7 +20715,7 @@
         <v>44746.09616077148</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20032,7 +20748,7 @@
         <v>44746.09616077148</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20065,7 +20781,7 @@
         <v>44746.09616077148</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20098,7 +20814,7 @@
         <v>42933.27466077148</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20131,7 +20847,7 @@
         <v>43408.43196077148</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20164,7 +20880,7 @@
         <v>43484.10536077148</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20197,7 +20913,7 @@
         <v>44318.58206077148</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20230,7 +20946,7 @@
         <v>44318.58206077148</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20263,7 +20979,7 @@
         <v>43679.26966077148</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20296,7 +21012,7 @@
         <v>44108.05326077148</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20329,7 +21045,7 @@
         <v>44191.32686077148</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20362,7 +21078,7 @@
         <v>44198.82686077148</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20395,7 +21111,7 @@
         <v>44164.64846077148</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20428,7 +21144,7 @@
         <v>44176.64846077148</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20461,7 +21177,7 @@
         <v>44177.64846077148</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20494,7 +21210,7 @@
         <v>44177.64846077148</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20527,7 +21243,7 @@
         <v>43986.85146077148</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20560,7 +21276,7 @@
         <v>43986.85146077148</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20593,7 +21309,7 @@
         <v>44036.97696077148</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20626,7 +21342,7 @@
         <v>44030.51526077148</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20659,7 +21375,7 @@
         <v>44030.51526077148</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20692,7 +21408,7 @@
         <v>44320.51526077148</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20725,7 +21441,7 @@
         <v>44090.51526077148</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20758,7 +21474,7 @@
         <v>44090.51526077148</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20791,7 +21507,7 @@
         <v>43613.02956077149</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20857,7 +21573,7 @@
         <v>44034.01846077148</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20989,7 +21705,7 @@
         <v>43991.39306077149</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21055,7 +21771,7 @@
         <v>44244.58296077148</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21088,7 +21804,7 @@
         <v>42780.86356077148</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21121,7 +21837,7 @@
         <v>42780.86356077148</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21154,7 +21870,7 @@
         <v>42780.86356077148</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21187,7 +21903,7 @@
         <v>42402.38126077148</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21220,7 +21936,7 @@
         <v>42657.53206077148</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21253,7 +21969,7 @@
         <v>42970.69546077148</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21286,7 +22002,7 @@
         <v>42970.69546077148</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21319,7 +22035,7 @@
         <v>42850.84656077148</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21352,7 +22068,7 @@
         <v>42853.19616077148</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21385,7 +22101,7 @@
         <v>42853.19616077148</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21418,7 +22134,7 @@
         <v>44578.79129904541</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21451,7 +22167,7 @@
         <v>44783.9799990454</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21484,7 +22200,7 @@
         <v>44642.9757990454</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21517,7 +22233,7 @@
         <v>44668.2524990454</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21550,7 +22266,7 @@
         <v>44699.9811990454</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21583,7 +22299,7 @@
         <v>45069.9582990454</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21616,7 +22332,7 @@
         <v>44777.3651990454</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21682,7 +22398,7 @@
         <v>44316.4350990454</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21814,7 +22530,7 @@
         <v>41568.4385990454</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21847,7 +22563,7 @@
         <v>41574.6385990454</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21880,7 +22596,7 @@
         <v>41574.6385990454</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21913,7 +22629,7 @@
         <v>41710.6515464535</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21946,7 +22662,7 @@
         <v>41680.71914645351</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21979,7 +22695,7 @@
         <v>41680.71914645351</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22012,7 +22728,7 @@
         <v>41714.43134645351</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22045,7 +22761,7 @@
         <v>41705.76394645351</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22078,7 +22794,7 @@
         <v>41693.19844645351</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22111,7 +22827,7 @@
         <v>41428.95104645351</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22144,7 +22860,7 @@
         <v>41431.54134645352</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22177,7 +22893,7 @@
         <v>41431.54134645352</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22210,7 +22926,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22243,7 +22959,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22276,7 +22992,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22309,7 +23025,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22342,7 +23058,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22375,7 +23091,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22408,7 +23124,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22441,7 +23157,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22474,7 +23190,7 @@
         <v>40826.33984645352</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22507,7 +23223,7 @@
         <v>40981.73584645352</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22540,7 +23256,7 @@
         <v>40982.73584645352</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22573,7 +23289,7 @@
         <v>40837.65904645352</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22969,7 +23685,7 @@
         <v>42571.55974645351</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23563,7 +24279,7 @@
         <v>44255.63890795585</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23596,7 +24312,7 @@
         <v>45068.49030795585</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23629,7 +24345,7 @@
         <v>44652.22860795585</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23662,7 +24378,7 @@
         <v>44170.17690795584</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23695,7 +24411,7 @@
         <v>44170.17690795584</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23728,7 +24444,7 @@
         <v>45571.97760795584</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23761,7 +24477,7 @@
         <v>45605.44210795585</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23794,7 +24510,7 @@
         <v>45610.65000795585</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23860,7 +24576,7 @@
         <v>45554.87070795584</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23893,7 +24609,7 @@
         <v>45720.73850795584</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23926,7 +24642,7 @@
         <v>45624.35970795585</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23959,7 +24675,7 @@
         <v>45624.35970795585</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23992,7 +24708,7 @@
         <v>45480.57760795585</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24025,7 +24741,7 @@
         <v>45490.22990795585</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24058,7 +24774,7 @@
         <v>45466.07030795585</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24091,7 +24807,7 @@
         <v>45466.07030795585</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24124,7 +24840,7 @@
         <v>45466.07030795585</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24157,7 +24873,7 @@
         <v>45364.67690795585</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24190,7 +24906,7 @@
         <v>45364.67690795585</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24223,7 +24939,7 @@
         <v>45824.57930795585</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24256,7 +24972,7 @@
         <v>45902.44400795585</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24289,7 +25005,7 @@
         <v>45635.56480795585</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24322,7 +25038,7 @@
         <v>45635.56480795585</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24487,7 +25203,7 @@
         <v>45845.65040795584</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24949,7 +25665,7 @@
         <v>45734.98420795584</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24982,7 +25698,7 @@
         <v>46433.28470795584</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25015,7 +25731,7 @@
         <v>46550.51050795584</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25048,7 +25764,7 @@
         <v>46450.51050795584</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25081,7 +25797,7 @@
         <v>47503.87590795584</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25114,7 +25830,7 @@
         <v>48639.39460795584</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25147,7 +25863,7 @@
         <v>49635.32240795584</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25180,7 +25896,7 @@
         <v>50322.02280795584</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25213,7 +25929,7 @@
         <v>51527.09940795584</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25246,7 +25962,7 @@
         <v>51269.45040795585</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25279,7 +25995,7 @@
         <v>51175.73470795585</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25312,7 +26028,7 @@
         <v>50538.85680795585</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25345,7 +26061,7 @@
         <v>53510.1199663662</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25378,7 +26094,7 @@
         <v>53171.7890663662</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25411,7 +26127,7 @@
         <v>54026.11060795584</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25444,7 +26160,7 @@
         <v>53296.5011495455</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25477,7 +26193,7 @@
         <v>51885.7206495455</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25510,7 +26226,7 @@
         <v>51497.0938495455</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25543,7 +26259,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25576,7 +26292,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25642,7 +26358,7 @@
         <v>51163.8275495455</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25675,7 +26391,7 @@
         <v>51619.9837495455</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25708,7 +26424,7 @@
         <v>51263.2108495455</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25741,7 +26457,7 @@
         <v>51263.2108495455</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25774,7 +26490,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25807,7 +26523,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25840,7 +26556,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25873,7 +26589,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25906,7 +26622,7 @@
         <v>50281.43384954549</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25939,7 +26655,7 @@
         <v>50281.43384954549</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25972,7 +26688,7 @@
         <v>45413.0547495455</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26005,7 +26721,7 @@
         <v>44297.8263495455</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26038,7 +26754,7 @@
         <v>44296.3049495455</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26071,7 +26787,7 @@
         <v>44506.5382495455</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26104,7 +26820,7 @@
         <v>44348.4489495455</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26137,7 +26853,7 @@
         <v>44601.76587419405</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26368,7 +27084,7 @@
         <v>43176.63327419404</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26401,7 +27117,7 @@
         <v>43176.63327419404</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26434,7 +27150,7 @@
         <v>42625.12567419405</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26467,7 +27183,7 @@
         <v>42230.85020073433</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26500,7 +27216,7 @@
         <v>42230.85020073433</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26533,7 +27249,7 @@
         <v>41889.20350073433</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26566,7 +27282,7 @@
         <v>38382.88530073433</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26599,7 +27315,7 @@
         <v>38604.81620073433</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26632,7 +27348,7 @@
         <v>38847.19080073433</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26665,7 +27381,7 @@
         <v>39593.44800073433</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26698,7 +27414,7 @@
         <v>38383.3761451998</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26731,7 +27447,7 @@
         <v>38383.3761451998</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26764,7 +27480,7 @@
         <v>38579.4041451998</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26896,7 +27612,7 @@
         <v>39510.8160451998</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27402,6 +28118,6 @@
       <c r="M770" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ETC.xlsx
+++ b/BackTest/2020-01-23 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -843,9 +843,11 @@
         <v>1591.051299999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10060</v>
+      </c>
       <c r="J12" t="n">
         <v>10100</v>
       </c>
@@ -882,9 +884,11 @@
         <v>1681.106299999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10050</v>
+      </c>
       <c r="J13" t="n">
         <v>10100</v>
       </c>
@@ -1077,11 +1081,9 @@
         <v>1694.378799999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>10100</v>
       </c>
@@ -1118,11 +1120,9 @@
         <v>1672.610199999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>10100</v>
       </c>
@@ -1198,11 +1198,9 @@
         <v>2452.202060503728</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>10100</v>
       </c>
@@ -1239,11 +1237,9 @@
         <v>2452.202060503728</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>10100</v>
       </c>
@@ -1553,11 +1549,9 @@
         <v>1752.330527534512</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>10100</v>
       </c>
@@ -1672,11 +1666,9 @@
         <v>1824.889927534512</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>10100</v>
       </c>
@@ -1869,11 +1861,9 @@
         <v>1706.037827534512</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>10100</v>
       </c>
@@ -1910,11 +1900,9 @@
         <v>1706.037827534512</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>10100</v>
       </c>
@@ -1951,11 +1939,9 @@
         <v>1706.037827534512</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>10100</v>
       </c>
@@ -1992,11 +1978,9 @@
         <v>2270.617627534512</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>10100</v>
       </c>
@@ -2033,11 +2017,9 @@
         <v>2270.617627534512</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>10050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>10100</v>
       </c>
@@ -2074,11 +2056,9 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>10100</v>
       </c>
@@ -2115,11 +2095,9 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>10100</v>
       </c>
@@ -2156,11 +2134,9 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>10060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>10100</v>
       </c>
@@ -2197,11 +2173,9 @@
         <v>2394.804727534512</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>10100</v>
       </c>
@@ -2238,11 +2212,9 @@
         <v>2324.804727534512</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>10100</v>
       </c>
@@ -2279,11 +2251,9 @@
         <v>2346.157627534512</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>10100</v>
       </c>
@@ -2320,11 +2290,9 @@
         <v>2480.166027534513</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>10060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>10100</v>
       </c>
@@ -2634,11 +2602,9 @@
         <v>2489.853627534513</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>10090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>10100</v>
       </c>
@@ -2675,11 +2641,9 @@
         <v>2489.853627534513</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>10050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>10100</v>
       </c>
@@ -2716,11 +2680,9 @@
         <v>2429.103027534513</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>10100</v>
       </c>
@@ -2796,11 +2758,9 @@
         <v>916.035327534513</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>10100</v>
       </c>
@@ -2837,11 +2797,9 @@
         <v>603.3192275345131</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>10100</v>
       </c>
@@ -3452,11 +3410,9 @@
         <v>3667.309535364047</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>10090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>10100</v>
       </c>
@@ -3493,11 +3449,9 @@
         <v>3767.309535364047</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>10020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>10100</v>
       </c>
@@ -3534,11 +3488,9 @@
         <v>4093.855235364047</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>10050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>10100</v>
       </c>
@@ -3575,11 +3527,9 @@
         <v>4189.823035364047</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>10100</v>
       </c>
@@ -3616,11 +3566,9 @@
         <v>4463.805635364048</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>10100</v>
       </c>
@@ -3657,11 +3605,9 @@
         <v>4091.430235364048</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>10100</v>
       </c>
@@ -3776,11 +3722,9 @@
         <v>4154.153035364047</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>10220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>10100</v>
       </c>
@@ -4675,7 +4619,7 @@
         <v>3885.431878553619</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
@@ -4683,11 +4627,11 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>1.010841584158416</v>
       </c>
       <c r="M108" t="inlineStr"/>
     </row>
@@ -4714,17 +4658,11 @@
         <v>3848.053778553619</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4753,17 +4691,11 @@
         <v>3868.345778553619</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4792,17 +4724,11 @@
         <v>3868.345778553619</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4831,17 +4757,11 @@
         <v>3638.345778553619</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4870,17 +4790,11 @@
         <v>3643.284478553619</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4909,17 +4823,11 @@
         <v>3449.21057855362</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4948,17 +4856,11 @@
         <v>3428.53677855362</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4987,17 +4889,11 @@
         <v>3624.53677855362</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5026,17 +4922,11 @@
         <v>3604.24477855362</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5065,17 +4955,11 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5104,17 +4988,11 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5143,17 +5021,11 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5182,17 +5054,11 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5221,17 +5087,11 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5263,14 +5123,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5302,14 +5156,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5341,14 +5189,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5380,14 +5222,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5419,14 +5255,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +5288,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5497,14 +5321,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5536,14 +5354,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5575,14 +5387,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +5420,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5653,14 +5453,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5692,14 +5486,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5731,14 +5519,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5770,14 +5552,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5809,14 +5585,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5848,14 +5618,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5887,14 +5651,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5926,14 +5684,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5965,14 +5717,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6004,14 +5750,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6043,14 +5783,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6082,14 +5816,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6121,14 +5849,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6160,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6199,14 +5915,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6238,14 +5948,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6277,14 +5981,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6316,14 +6014,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6355,14 +6047,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6394,14 +6080,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6433,14 +6113,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6472,14 +6146,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6511,14 +6179,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6550,14 +6212,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6589,14 +6245,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6628,14 +6278,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +6311,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6706,14 +6344,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6745,14 +6377,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6784,14 +6410,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6823,14 +6443,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6862,14 +6476,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6901,14 +6509,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6940,14 +6542,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +6575,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7018,14 +6608,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +6641,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +6674,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7135,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7174,14 +6740,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7213,14 +6773,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7252,14 +6806,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7291,14 +6839,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7330,14 +6872,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7369,14 +6905,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +6938,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7447,14 +6971,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7004,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7525,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7564,14 +7070,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7603,14 +7103,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7642,14 +7136,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7681,14 +7169,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7720,14 +7202,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7759,14 +7235,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7798,14 +7268,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7837,14 +7301,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7876,14 +7334,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7915,14 +7367,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7954,14 +7400,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7993,14 +7433,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8032,14 +7466,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8071,14 +7499,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8110,14 +7532,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8149,14 +7565,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8188,14 +7598,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +7631,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8266,14 +7664,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8305,14 +7697,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +7730,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +7763,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +7796,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +7829,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8500,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8539,14 +7895,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8578,14 +7928,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8617,14 +7961,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8656,14 +7994,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +8027,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8734,14 +8060,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8773,14 +8093,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8812,14 +8126,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8851,14 +8159,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8890,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8929,14 +8225,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8968,14 +8258,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9007,14 +8291,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9046,14 +8324,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9085,14 +8357,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9124,14 +8390,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9163,14 +8423,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9202,14 +8456,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9241,14 +8489,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9280,14 +8522,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9316,17 +8552,15 @@
         <v>2369.062769282107</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>10210</v>
+      </c>
       <c r="J227" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>10210</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9355,15 +8589,17 @@
         <v>2369.062769282107</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>10210</v>
+      </c>
       <c r="J228" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -9398,7 +8634,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9433,11 +8669,13 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>10220</v>
+      </c>
       <c r="J230" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9476,7 +8714,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9511,11 +8749,13 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>10210</v>
+      </c>
       <c r="J232" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9550,11 +8790,13 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>10210</v>
+      </c>
       <c r="J233" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9589,11 +8831,13 @@
         <v>624.9780692821072</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>10210</v>
+      </c>
       <c r="J234" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9632,7 +8876,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9667,11 +8911,13 @@
         <v>644.8346692821071</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>10210</v>
+      </c>
       <c r="J236" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9706,11 +8952,13 @@
         <v>644.8346692821071</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>10220</v>
+      </c>
       <c r="J237" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9749,7 +8997,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9788,7 +9036,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9827,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9866,7 +9114,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9905,7 +9153,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9944,7 +9192,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9983,7 +9231,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -10022,7 +9270,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10061,7 +9309,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10100,7 +9348,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10139,7 +9387,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10178,7 +9426,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10217,7 +9465,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10256,7 +9504,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10295,7 +9543,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10334,7 +9582,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10373,7 +9621,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10412,7 +9660,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10451,7 +9699,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10490,7 +9738,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10529,7 +9777,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10568,7 +9816,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10607,7 +9855,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10646,7 +9894,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10685,7 +9933,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10724,7 +9972,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10763,7 +10011,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10802,7 +10050,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10841,7 +10089,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10880,7 +10128,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10919,7 +10167,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10958,7 +10206,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10997,7 +10245,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -11036,7 +10284,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11075,7 +10323,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11114,7 +10362,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11153,7 +10401,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11192,7 +10440,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11231,7 +10479,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11270,7 +10518,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11309,7 +10557,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11348,7 +10596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11387,7 +10635,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11426,7 +10674,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11465,7 +10713,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11504,7 +10752,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11543,7 +10791,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11582,7 +10830,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11621,7 +10869,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11660,7 +10908,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11699,7 +10947,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11738,7 +10986,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11777,7 +11025,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11816,7 +11064,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11855,7 +11103,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11894,7 +11142,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11933,7 +11181,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11972,7 +11220,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -12011,7 +11259,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12050,7 +11298,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12089,7 +11337,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12128,7 +11376,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12167,7 +11415,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12206,7 +11454,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12245,7 +11493,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12284,7 +11532,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12323,7 +11571,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12362,7 +11610,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12401,7 +11649,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12440,7 +11688,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12479,7 +11727,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12518,7 +11766,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12557,7 +11805,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12596,7 +11844,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12635,7 +11883,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12674,7 +11922,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12713,7 +11961,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12752,7 +12000,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12791,7 +12039,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12830,7 +12078,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12869,7 +12117,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12908,7 +12156,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12947,7 +12195,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12986,7 +12234,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -13025,7 +12273,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13064,7 +12312,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13103,7 +12351,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13142,7 +12390,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13181,7 +12429,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13220,7 +12468,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13255,19 +12503,19 @@
         <v>5876.865725592786</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>10100</v>
+        <v>10210</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L328" t="n">
-        <v>1</v>
+        <v>1.01654750244858</v>
       </c>
       <c r="M328" t="inlineStr"/>
     </row>
@@ -13294,17 +12542,11 @@
         <v>13090.26342559279</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13333,17 +12575,11 @@
         <v>14792.03592559279</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13372,17 +12608,11 @@
         <v>19134.78112559279</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13411,17 +12641,11 @@
         <v>20602.83084517848</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13450,17 +12674,11 @@
         <v>23779.17344517848</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13492,14 +12710,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13531,14 +12743,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13570,14 +12776,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13609,14 +12809,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13648,14 +12842,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13687,14 +12875,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13726,14 +12908,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13765,14 +12941,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13804,14 +12974,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13843,14 +13007,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13882,14 +13040,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13921,14 +13073,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13960,14 +13106,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13999,14 +13139,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14038,14 +13172,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14077,14 +13205,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14116,14 +13238,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14155,14 +13271,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14194,14 +13304,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14233,14 +13337,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14272,14 +13370,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14311,14 +13403,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14350,14 +13436,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14389,14 +13469,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14428,14 +13502,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14467,14 +13535,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14506,14 +13568,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14545,14 +13601,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14584,14 +13634,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14623,14 +13667,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14662,14 +13700,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14701,14 +13733,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14740,14 +13766,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14779,14 +13799,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14818,14 +13832,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14857,14 +13865,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14896,14 +13898,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14932,23 +13928,15 @@
         <v>37219.56210057723</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
-        <v>1.052425742574258</v>
-      </c>
-      <c r="M371" t="n">
-        <v>1.00597609561753</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -15006,7 +13994,7 @@
         <v>37219.56210057723</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -15039,7 +14027,7 @@
         <v>37287.52290057723</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -15105,7 +14093,7 @@
         <v>37894.33130057723</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -15138,7 +14126,7 @@
         <v>38308.21300057723</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -15270,7 +14258,7 @@
         <v>39607.41955948261</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15336,7 +14324,7 @@
         <v>37747.97695948261</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15369,7 +14357,7 @@
         <v>37526.52165948261</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15402,7 +14390,7 @@
         <v>37354.77185948261</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15435,7 +14423,7 @@
         <v>37589.43515948261</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15468,7 +14456,7 @@
         <v>37328.80385948261</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15501,7 +14489,7 @@
         <v>36615.95877041719</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15534,7 +14522,7 @@
         <v>36625.95877041719</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15567,7 +14555,7 @@
         <v>36855.37107041719</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15600,7 +14588,7 @@
         <v>36855.37107041719</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15633,7 +14621,7 @@
         <v>37396.90087041719</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15666,7 +14654,7 @@
         <v>37229.28657041719</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15699,7 +14687,7 @@
         <v>36424.10337041719</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15732,7 +14720,7 @@
         <v>36333.95807041719</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15765,7 +14753,7 @@
         <v>36333.95807041719</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15798,7 +14786,7 @@
         <v>37856.37637041719</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15831,7 +14819,7 @@
         <v>37856.37637041719</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15864,7 +14852,7 @@
         <v>38335.71737041719</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15897,7 +14885,7 @@
         <v>38515.42537041719</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15930,7 +14918,7 @@
         <v>38515.42537041719</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15963,7 +14951,7 @@
         <v>38226.29007041718</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15996,7 +14984,7 @@
         <v>38275.26427041718</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16029,7 +15017,7 @@
         <v>37993.57477041718</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16062,7 +15050,7 @@
         <v>37517.32687041718</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16095,7 +15083,7 @@
         <v>37735.00567041718</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16128,7 +15116,7 @@
         <v>37735.00567041718</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16161,7 +15149,7 @@
         <v>36767.79427041718</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16194,7 +15182,7 @@
         <v>37254.16767041718</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16227,7 +15215,7 @@
         <v>37513.57617041717</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16260,7 +15248,7 @@
         <v>37665.06257041718</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16326,7 +15314,7 @@
         <v>38218.62797041718</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16359,7 +15347,7 @@
         <v>38288.37787041718</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16392,7 +15380,7 @@
         <v>38288.37787041718</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16425,7 +15413,7 @@
         <v>38288.37787041718</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16458,7 +15446,7 @@
         <v>38288.37787041718</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16491,7 +15479,7 @@
         <v>37318.37847041718</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16524,7 +15512,7 @@
         <v>37578.80067041718</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16557,7 +15545,7 @@
         <v>37337.02287041717</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16590,7 +15578,7 @@
         <v>37337.02287041717</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16623,7 +15611,7 @@
         <v>37224.48877041718</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16656,7 +15644,7 @@
         <v>37781.1810537661</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16689,7 +15677,7 @@
         <v>36468.7795537661</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16722,7 +15710,7 @@
         <v>37666.54444009569</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16755,7 +15743,7 @@
         <v>37666.19084009569</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16788,7 +15776,7 @@
         <v>37660.17484009569</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16821,7 +15809,7 @@
         <v>37660.17484009569</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16854,7 +15842,7 @@
         <v>37673.29274009568</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16887,7 +15875,7 @@
         <v>37574.08624009568</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16920,7 +15908,7 @@
         <v>37722.71554009568</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16953,7 +15941,7 @@
         <v>37722.71554009568</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16986,7 +15974,7 @@
         <v>38563.37594009568</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17019,7 +16007,7 @@
         <v>38468.78034009568</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17052,7 +16040,7 @@
         <v>38516.01274009568</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17085,7 +16073,7 @@
         <v>38781.28224009569</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17118,7 +16106,7 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17151,7 +16139,7 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17184,7 +16172,7 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17217,7 +16205,7 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17250,7 +16238,7 @@
         <v>38687.33464009569</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17283,7 +16271,7 @@
         <v>40564.19434009569</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17316,7 +16304,7 @@
         <v>40484.08274009569</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17349,7 +16337,7 @@
         <v>42264.92084009569</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17382,7 +16370,7 @@
         <v>45920.29824009569</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17415,7 +16403,7 @@
         <v>45605.07634009569</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17448,7 +16436,7 @@
         <v>45775.11564009569</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17580,7 +16568,7 @@
         <v>46176.72161920845</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17613,7 +16601,7 @@
         <v>47083.17561920844</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17646,7 +16634,7 @@
         <v>46790.78291920845</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17679,7 +16667,7 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17712,7 +16700,7 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17745,7 +16733,7 @@
         <v>47168.24991920845</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17778,7 +16766,7 @@
         <v>45936.65431920845</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17811,7 +16799,7 @@
         <v>45909.87241920845</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17844,7 +16832,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17877,7 +16865,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17910,7 +16898,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17943,7 +16931,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17976,7 +16964,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18009,7 +16997,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18042,7 +17030,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18075,7 +17063,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18108,7 +17096,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18141,7 +17129,7 @@
         <v>46038.15641920845</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18174,7 +17162,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18207,7 +17195,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18240,7 +17228,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18273,7 +17261,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18306,7 +17294,7 @@
         <v>46702.25221920845</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18702,7 +17690,7 @@
         <v>46598.02682904147</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18735,7 +17723,7 @@
         <v>46779.91352904147</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18768,7 +17756,7 @@
         <v>45259.21222904147</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18801,7 +17789,7 @@
         <v>45477.06762904147</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18834,7 +17822,7 @@
         <v>46286.87672904147</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18867,7 +17855,7 @@
         <v>46286.87672904147</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18900,7 +17888,7 @@
         <v>46286.87672904147</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18933,7 +17921,7 @@
         <v>46431.81049996411</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18966,7 +17954,7 @@
         <v>46431.81049996411</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18999,7 +17987,7 @@
         <v>45868.29575713357</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19032,7 +18020,7 @@
         <v>45405.38205713357</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19065,7 +18053,7 @@
         <v>45408.26105713358</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19098,7 +18086,7 @@
         <v>45408.26105713358</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19461,7 +18449,7 @@
         <v>46795.29152696597</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19494,7 +18482,7 @@
         <v>46800.64112696597</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19527,7 +18515,7 @@
         <v>46799.71292696597</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19560,7 +18548,7 @@
         <v>46799.71292696597</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19593,7 +18581,7 @@
         <v>46799.91943254218</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19626,7 +18614,7 @@
         <v>46705.04593254218</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19659,7 +18647,7 @@
         <v>46713.56741548719</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19692,7 +18680,7 @@
         <v>46013.82701548719</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19725,7 +18713,7 @@
         <v>46063.89731548719</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19758,7 +18746,7 @@
         <v>46063.89731548719</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19791,7 +18779,7 @@
         <v>45739.95481548719</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19824,7 +18812,7 @@
         <v>45839.95481548719</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19857,7 +18845,7 @@
         <v>45446.64211548719</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19890,7 +18878,7 @@
         <v>45446.64211548719</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19923,7 +18911,7 @@
         <v>45662.19911548719</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19956,7 +18944,7 @@
         <v>45785.97227954678</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19989,7 +18977,7 @@
         <v>45673.29697954677</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20022,7 +19010,7 @@
         <v>45957.28747954677</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20055,7 +19043,7 @@
         <v>45957.28747954677</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20088,7 +19076,7 @@
         <v>45957.28747954677</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20121,7 +19109,7 @@
         <v>45607.17312432289</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20154,7 +19142,7 @@
         <v>44763.9380243229</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20187,7 +19175,7 @@
         <v>44763.9380243229</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20220,7 +19208,7 @@
         <v>44680.39886077149</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20253,7 +19241,7 @@
         <v>44680.39886077149</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20286,7 +19274,7 @@
         <v>44680.39886077149</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20319,7 +19307,7 @@
         <v>45215.75546077149</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20352,7 +19340,7 @@
         <v>45293.73146077149</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20385,7 +19373,7 @@
         <v>44126.78806077149</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20418,7 +19406,7 @@
         <v>44890.09436077149</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20451,7 +19439,7 @@
         <v>43954.62716077149</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20484,7 +19472,7 @@
         <v>43970.07276077149</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20517,7 +19505,7 @@
         <v>43411.85976077148</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20550,7 +19538,7 @@
         <v>43411.85976077148</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20583,7 +19571,7 @@
         <v>43902.87166077148</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20616,7 +19604,7 @@
         <v>44038.10936077148</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20649,7 +19637,7 @@
         <v>45022.15466077148</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20682,7 +19670,7 @@
         <v>45038.35306077148</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20715,7 +19703,7 @@
         <v>44746.09616077148</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20748,7 +19736,7 @@
         <v>44746.09616077148</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20781,7 +19769,7 @@
         <v>44746.09616077148</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20814,7 +19802,7 @@
         <v>42933.27466077148</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20847,7 +19835,7 @@
         <v>43408.43196077148</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20880,7 +19868,7 @@
         <v>43484.10536077148</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20913,7 +19901,7 @@
         <v>44318.58206077148</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20946,7 +19934,7 @@
         <v>44318.58206077148</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20979,7 +19967,7 @@
         <v>43679.26966077148</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21012,7 +20000,7 @@
         <v>44108.05326077148</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21045,7 +20033,7 @@
         <v>44191.32686077148</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21078,7 +20066,7 @@
         <v>44198.82686077148</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21111,7 +20099,7 @@
         <v>44164.64846077148</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21144,7 +20132,7 @@
         <v>44176.64846077148</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21177,7 +20165,7 @@
         <v>44177.64846077148</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21210,7 +20198,7 @@
         <v>44177.64846077148</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21243,7 +20231,7 @@
         <v>43986.85146077148</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21276,7 +20264,7 @@
         <v>43986.85146077148</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21309,7 +20297,7 @@
         <v>44036.97696077148</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21342,7 +20330,7 @@
         <v>44030.51526077148</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21375,7 +20363,7 @@
         <v>44030.51526077148</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21408,7 +20396,7 @@
         <v>44320.51526077148</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21441,7 +20429,7 @@
         <v>44090.51526077148</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21474,7 +20462,7 @@
         <v>44090.51526077148</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21507,7 +20495,7 @@
         <v>43613.02956077149</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21573,7 +20561,7 @@
         <v>44034.01846077148</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21705,7 +20693,7 @@
         <v>43991.39306077149</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21771,7 +20759,7 @@
         <v>44244.58296077148</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21804,7 +20792,7 @@
         <v>42780.86356077148</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21837,7 +20825,7 @@
         <v>42780.86356077148</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21870,7 +20858,7 @@
         <v>42780.86356077148</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21903,7 +20891,7 @@
         <v>42402.38126077148</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21936,7 +20924,7 @@
         <v>42657.53206077148</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21969,7 +20957,7 @@
         <v>42970.69546077148</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22002,7 +20990,7 @@
         <v>42970.69546077148</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22035,7 +21023,7 @@
         <v>42850.84656077148</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22068,7 +21056,7 @@
         <v>42853.19616077148</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22101,7 +21089,7 @@
         <v>42853.19616077148</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22134,7 +21122,7 @@
         <v>44578.79129904541</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22167,7 +21155,7 @@
         <v>44783.9799990454</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22200,7 +21188,7 @@
         <v>44642.9757990454</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22233,7 +21221,7 @@
         <v>44668.2524990454</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22266,7 +21254,7 @@
         <v>44699.9811990454</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22299,7 +21287,7 @@
         <v>45069.9582990454</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22332,7 +21320,7 @@
         <v>44777.3651990454</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22398,7 +21386,7 @@
         <v>44316.4350990454</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22530,7 +21518,7 @@
         <v>41568.4385990454</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22563,7 +21551,7 @@
         <v>41574.6385990454</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22596,7 +21584,7 @@
         <v>41574.6385990454</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22629,7 +21617,7 @@
         <v>41710.6515464535</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22662,7 +21650,7 @@
         <v>41680.71914645351</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22695,7 +21683,7 @@
         <v>41680.71914645351</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22728,7 +21716,7 @@
         <v>41714.43134645351</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22761,7 +21749,7 @@
         <v>41705.76394645351</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22794,7 +21782,7 @@
         <v>41693.19844645351</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22827,7 +21815,7 @@
         <v>41428.95104645351</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22860,7 +21848,7 @@
         <v>41431.54134645352</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22893,7 +21881,7 @@
         <v>41431.54134645352</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22926,7 +21914,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22959,7 +21947,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22992,7 +21980,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23025,7 +22013,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23058,7 +22046,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23091,7 +22079,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23124,7 +22112,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23157,7 +22145,7 @@
         <v>41596.94274645352</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23190,7 +22178,7 @@
         <v>40826.33984645352</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23223,7 +22211,7 @@
         <v>40981.73584645352</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23256,7 +22244,7 @@
         <v>40982.73584645352</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23289,7 +22277,7 @@
         <v>40837.65904645352</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23685,7 +22673,7 @@
         <v>42571.55974645351</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24279,7 +23267,7 @@
         <v>44255.63890795585</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24312,7 +23300,7 @@
         <v>45068.49030795585</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24345,7 +23333,7 @@
         <v>44652.22860795585</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24378,7 +23366,7 @@
         <v>44170.17690795584</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24411,7 +23399,7 @@
         <v>44170.17690795584</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24444,7 +23432,7 @@
         <v>45571.97760795584</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24477,7 +23465,7 @@
         <v>45605.44210795585</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24510,7 +23498,7 @@
         <v>45610.65000795585</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24576,7 +23564,7 @@
         <v>45554.87070795584</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24609,7 +23597,7 @@
         <v>45720.73850795584</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24642,7 +23630,7 @@
         <v>45624.35970795585</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24675,7 +23663,7 @@
         <v>45624.35970795585</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24708,7 +23696,7 @@
         <v>45480.57760795585</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24741,7 +23729,7 @@
         <v>45490.22990795585</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24774,7 +23762,7 @@
         <v>45466.07030795585</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24807,7 +23795,7 @@
         <v>45466.07030795585</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24840,7 +23828,7 @@
         <v>45466.07030795585</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24873,7 +23861,7 @@
         <v>45364.67690795585</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24906,7 +23894,7 @@
         <v>45364.67690795585</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24939,7 +23927,7 @@
         <v>45824.57930795585</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24972,7 +23960,7 @@
         <v>45902.44400795585</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25005,7 +23993,7 @@
         <v>45635.56480795585</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25038,7 +24026,7 @@
         <v>45635.56480795585</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25203,7 +24191,7 @@
         <v>45845.65040795584</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25665,7 +24653,7 @@
         <v>45734.98420795584</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25698,7 +24686,7 @@
         <v>46433.28470795584</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25731,7 +24719,7 @@
         <v>46550.51050795584</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25764,7 +24752,7 @@
         <v>46450.51050795584</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25797,7 +24785,7 @@
         <v>47503.87590795584</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25830,7 +24818,7 @@
         <v>48639.39460795584</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25863,7 +24851,7 @@
         <v>49635.32240795584</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25896,7 +24884,7 @@
         <v>50322.02280795584</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25929,7 +24917,7 @@
         <v>51527.09940795584</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25962,7 +24950,7 @@
         <v>51269.45040795585</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25995,7 +24983,7 @@
         <v>51175.73470795585</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26028,7 +25016,7 @@
         <v>50538.85680795585</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26061,7 +25049,7 @@
         <v>53510.1199663662</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26094,7 +25082,7 @@
         <v>53171.7890663662</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26127,7 +25115,7 @@
         <v>54026.11060795584</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26160,7 +25148,7 @@
         <v>53296.5011495455</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26259,7 +25247,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26358,7 +25346,7 @@
         <v>51163.8275495455</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26391,7 +25379,7 @@
         <v>51619.9837495455</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26424,7 +25412,7 @@
         <v>51263.2108495455</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26457,7 +25445,7 @@
         <v>51263.2108495455</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26490,7 +25478,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26523,7 +25511,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26556,7 +25544,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26589,7 +25577,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26622,7 +25610,7 @@
         <v>50281.43384954549</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26655,7 +25643,7 @@
         <v>50281.43384954549</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26688,7 +25676,7 @@
         <v>45413.0547495455</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26721,7 +25709,7 @@
         <v>44297.8263495455</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26754,7 +25742,7 @@
         <v>44296.3049495455</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26787,7 +25775,7 @@
         <v>44506.5382495455</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26820,7 +25808,7 @@
         <v>44348.4489495455</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26853,7 +25841,7 @@
         <v>44601.76587419405</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27084,7 +26072,7 @@
         <v>43176.63327419404</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27117,7 +26105,7 @@
         <v>43176.63327419404</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27150,7 +26138,7 @@
         <v>42625.12567419405</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27183,7 +26171,7 @@
         <v>42230.85020073433</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27216,7 +26204,7 @@
         <v>42230.85020073433</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27249,7 +26237,7 @@
         <v>41889.20350073433</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27282,7 +26270,7 @@
         <v>38382.88530073433</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27315,7 +26303,7 @@
         <v>38604.81620073433</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27348,7 +26336,7 @@
         <v>38847.19080073433</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27381,7 +26369,7 @@
         <v>39593.44800073433</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27414,7 +26402,7 @@
         <v>38383.3761451998</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27447,7 +26435,7 @@
         <v>38383.3761451998</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27480,7 +26468,7 @@
         <v>38579.4041451998</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27612,7 +26600,7 @@
         <v>39510.8160451998</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28118,6 +27106,6 @@
       <c r="M770" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ETC.xlsx
+++ b/BackTest/2020-01-23 BackTest ETC.xlsx
@@ -451,7 +451,7 @@
         <v>-1621.257400000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1616.517800000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10040</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-1717.873300000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10100</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10040</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-1616.628400000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10070</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10040</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-1653.033100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10100</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-1653.033100000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10070</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-1665.686100000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10070</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>-1613.441700000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10050</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +715,11 @@
         <v>1656.464999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10100</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -843,19 +781,11 @@
         <v>1591.051299999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10060</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -884,19 +814,11 @@
         <v>1681.106299999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10050</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -928,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -967,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1006,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1045,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1084,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1162,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1201,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1240,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1279,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1318,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1357,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1396,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1435,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1474,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1513,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1552,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1591,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1630,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1669,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1708,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1747,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1786,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1825,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1864,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1903,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1942,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1981,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2020,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2059,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2098,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2137,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2176,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2215,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2254,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2290,17 +2002,15 @@
         <v>2480.166027534513</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10060</v>
+      </c>
       <c r="J49" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>10060</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2333,11 +2043,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>10100</v>
+        <v>10060</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2372,11 +2082,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>10100</v>
+        <v>10060</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2410,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2449,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2488,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2527,14 +2219,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2566,14 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2605,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2644,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2683,14 +2351,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2722,14 +2384,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2800,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2836,19 +2480,11 @@
         <v>710.654027534513</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9940</v>
-      </c>
-      <c r="J63" t="n">
-        <v>10100</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2882,12 +2518,10 @@
       <c r="I64" t="n">
         <v>10000</v>
       </c>
-      <c r="J64" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2923,9 +2557,7 @@
       <c r="I65" t="n">
         <v>10010</v>
       </c>
-      <c r="J65" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2964,9 +2596,7 @@
       <c r="I66" t="n">
         <v>9995</v>
       </c>
-      <c r="J66" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3005,9 +2635,7 @@
       <c r="I67" t="n">
         <v>10000</v>
       </c>
-      <c r="J67" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3046,9 +2674,7 @@
       <c r="I68" t="n">
         <v>10010</v>
       </c>
-      <c r="J68" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,9 +2713,7 @@
       <c r="I69" t="n">
         <v>10010</v>
       </c>
-      <c r="J69" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,9 +2752,7 @@
       <c r="I70" t="n">
         <v>10000</v>
       </c>
-      <c r="J70" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3169,9 +2791,7 @@
       <c r="I71" t="n">
         <v>9960</v>
       </c>
-      <c r="J71" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3210,9 +2830,7 @@
       <c r="I72" t="n">
         <v>9970</v>
       </c>
-      <c r="J72" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3251,9 +2869,7 @@
       <c r="I73" t="n">
         <v>10000</v>
       </c>
-      <c r="J73" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,9 +2908,7 @@
       <c r="I74" t="n">
         <v>9965</v>
       </c>
-      <c r="J74" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3333,9 +2947,7 @@
       <c r="I75" t="n">
         <v>9980</v>
       </c>
-      <c r="J75" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3374,9 +2986,7 @@
       <c r="I76" t="n">
         <v>10000</v>
       </c>
-      <c r="J76" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3410,12 +3020,12 @@
         <v>3667.309535364047</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>10100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10090</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3452,9 +3062,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3491,9 +3099,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3530,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3569,9 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3608,9 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3647,9 +3247,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,9 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3725,9 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3764,9 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3803,9 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3842,9 +3432,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3881,9 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3920,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3959,9 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3998,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4037,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4076,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4115,9 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4154,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4193,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4271,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4310,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4349,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4388,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4466,9 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4505,9 +4061,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,9 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4583,9 +4135,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4619,19 +4169,17 @@
         <v>3885.431878553619</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>10100</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.010841584158416</v>
+        <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
     </row>
@@ -4658,11 +4206,15 @@
         <v>3848.053778553619</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4691,11 +4243,15 @@
         <v>3868.345778553619</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4280,15 @@
         <v>3868.345778553619</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4757,11 +4317,15 @@
         <v>3638.345778553619</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +4354,15 @@
         <v>3643.284478553619</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4823,11 +4391,15 @@
         <v>3449.21057855362</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4428,15 @@
         <v>3428.53677855362</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4889,11 +4465,15 @@
         <v>3624.53677855362</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +4502,15 @@
         <v>3604.24477855362</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4955,11 +4539,15 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4988,11 +4576,15 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5021,11 +4613,15 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5054,11 +4650,15 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5087,11 +4687,15 @@
         <v>3136.55037855362</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5124,7 +4728,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5157,7 +4765,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5190,7 +4802,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5223,7 +4839,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5256,7 +4876,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5289,7 +4913,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5322,7 +4950,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +4987,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5388,7 +5024,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5421,7 +5061,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +5098,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +5135,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5520,7 +5172,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5553,7 +5209,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5586,7 +5246,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5619,7 +5283,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5652,7 +5320,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5685,7 +5357,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5718,7 +5394,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5751,7 +5431,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5784,7 +5468,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5817,7 +5505,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5850,7 +5542,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +5579,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5916,7 +5616,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5949,7 +5653,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5982,7 +5690,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6015,7 +5727,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6048,7 +5764,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6081,7 +5801,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6114,7 +5838,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6147,7 +5875,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6180,7 +5912,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6213,7 +5949,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6246,7 +5986,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6279,7 +6023,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6312,7 +6060,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6345,7 +6097,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6378,7 +6134,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6411,7 +6171,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6444,7 +6208,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6477,7 +6245,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6510,7 +6282,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6543,7 +6319,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6576,7 +6356,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6609,7 +6393,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6642,7 +6430,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6675,7 +6467,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6708,7 +6504,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6741,7 +6541,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6774,7 +6578,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6807,7 +6615,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6840,7 +6652,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6873,7 +6689,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6906,7 +6726,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6939,7 +6763,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6972,7 +6800,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7005,7 +6837,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +6874,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7071,7 +6911,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7104,7 +6948,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7137,7 +6985,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7170,7 +7022,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7203,7 +7059,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7236,7 +7096,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7269,7 +7133,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7302,7 +7170,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7335,7 +7207,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7368,7 +7244,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7401,7 +7281,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7434,7 +7318,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7467,7 +7355,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7500,7 +7392,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7533,7 +7429,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7566,7 +7466,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7599,7 +7503,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7632,7 +7540,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7665,7 +7577,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7698,7 +7614,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7731,7 +7651,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7764,7 +7688,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7797,7 +7725,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7830,7 +7762,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7863,7 +7799,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7896,7 +7836,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7929,7 +7873,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7962,7 +7910,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7995,7 +7947,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8028,7 +7984,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8061,7 +8021,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8094,7 +8058,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8127,7 +8095,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8160,7 +8132,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8169,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8226,7 +8206,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8259,7 +8243,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8292,7 +8280,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8325,7 +8317,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8358,7 +8354,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8391,7 +8391,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8424,7 +8428,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8457,7 +8465,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8490,7 +8502,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8523,7 +8539,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8552,15 +8572,15 @@
         <v>2369.062769282107</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>10210</v>
-      </c>
-      <c r="J227" t="n">
-        <v>10210</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8589,17 +8609,13 @@
         <v>2369.062769282107</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>10210</v>
-      </c>
-      <c r="J228" t="n">
-        <v>10210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -8633,9 +8649,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8669,14 +8683,10 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>10220</v>
-      </c>
-      <c r="J230" t="n">
-        <v>10210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8713,9 +8723,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8749,14 +8757,10 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>10210</v>
-      </c>
-      <c r="J232" t="n">
-        <v>10210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8790,14 +8794,10 @@
         <v>624.5790692821072</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>10210</v>
-      </c>
-      <c r="J233" t="n">
-        <v>10210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8831,14 +8831,10 @@
         <v>624.9780692821072</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>10210</v>
-      </c>
-      <c r="J234" t="n">
-        <v>10210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8875,9 +8871,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,14 +8905,10 @@
         <v>644.8346692821071</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>10210</v>
-      </c>
-      <c r="J236" t="n">
-        <v>10210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8952,14 +8942,10 @@
         <v>644.8346692821071</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>10220</v>
-      </c>
-      <c r="J237" t="n">
-        <v>10210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8996,9 +8982,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9035,9 +9019,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9074,9 +9056,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9113,9 +9093,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,9 +9130,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,9 +9167,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9230,9 +9204,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9269,9 +9241,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9308,9 +9278,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,9 +9315,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9386,9 +9352,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9425,9 +9389,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9464,9 +9426,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9503,9 +9463,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9542,9 +9500,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9581,9 +9537,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9620,9 +9574,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9659,9 +9611,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9698,9 +9648,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9737,9 +9685,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9776,9 +9722,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9815,9 +9759,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9854,9 +9796,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9893,9 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9932,9 +9870,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9971,9 +9907,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10010,9 +9944,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10049,9 +9981,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10088,9 +10018,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10127,9 +10055,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10166,9 +10092,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10205,9 +10129,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10244,9 +10166,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10283,9 +10203,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10322,9 +10240,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10361,9 +10277,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10400,9 +10314,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10439,9 +10351,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10478,9 +10388,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10517,9 +10425,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10556,9 +10462,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10595,9 +10499,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10634,9 +10536,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10673,9 +10573,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10712,9 +10610,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10751,9 +10647,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10790,9 +10684,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10829,9 +10721,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10868,9 +10758,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10907,9 +10795,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10946,9 +10832,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,9 +10869,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11024,9 +10906,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11063,9 +10943,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,9 +10980,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11141,9 +11017,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11180,9 +11054,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11219,9 +11091,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11258,9 +11128,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11297,9 +11165,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11336,9 +11202,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11375,9 +11239,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11414,9 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11453,9 +11313,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11492,9 +11350,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11531,9 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11570,9 +11424,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,9 +11461,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11648,9 +11498,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11687,9 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11726,9 +11572,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11765,9 +11609,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11804,9 +11646,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11843,9 +11683,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11882,9 +11720,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11921,9 +11757,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11960,9 +11794,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11999,9 +11831,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12038,9 +11868,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12077,9 +11905,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12116,9 +11942,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12155,9 +11979,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12194,9 +12016,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12233,9 +12053,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12272,9 +12090,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12311,9 +12127,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12350,9 +12164,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12389,9 +12201,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12428,9 +12238,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12467,9 +12275,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12503,19 +12309,17 @@
         <v>5876.865725592786</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L328" t="n">
-        <v>1.01654750244858</v>
+        <v>1</v>
       </c>
       <c r="M328" t="inlineStr"/>
     </row>
@@ -12542,11 +12346,15 @@
         <v>13090.26342559279</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12575,11 +12383,15 @@
         <v>14792.03592559279</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12608,11 +12420,15 @@
         <v>19134.78112559279</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12641,11 +12457,15 @@
         <v>20602.83084517848</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12674,11 +12494,15 @@
         <v>23779.17344517848</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12711,7 +12535,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12744,7 +12572,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12777,7 +12609,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12810,7 +12646,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12843,7 +12683,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12876,7 +12720,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12909,7 +12757,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12942,7 +12794,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12975,7 +12831,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13008,7 +12868,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13041,7 +12905,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13074,7 +12942,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13107,7 +12979,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13140,7 +13016,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13169,14 +13049,16 @@
         <v>34426.45164967441</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -13202,7 +13084,7 @@
         <v>34589.89674967441</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13235,7 +13117,7 @@
         <v>34589.89674967441</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13268,7 +13150,7 @@
         <v>35089.80574967441</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13301,7 +13183,7 @@
         <v>36197.62664967441</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13334,7 +13216,7 @@
         <v>36197.62664967441</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13367,7 +13249,7 @@
         <v>40356.09445445382</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13400,7 +13282,7 @@
         <v>36690.79373170425</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13433,7 +13315,7 @@
         <v>37067.40353170424</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13466,7 +13348,7 @@
         <v>36173.48423170424</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13499,7 +13381,7 @@
         <v>36339.21514708886</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13532,7 +13414,7 @@
         <v>36136.57624708886</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13565,7 +13447,7 @@
         <v>36136.57624708886</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13598,7 +13480,7 @@
         <v>36139.19244708886</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13631,7 +13513,7 @@
         <v>36139.19244708886</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13664,7 +13546,7 @@
         <v>36082.70562383304</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13697,7 +13579,7 @@
         <v>37399.83940057723</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13730,7 +13612,7 @@
         <v>37399.83940057723</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13763,7 +13645,7 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13796,7 +13678,7 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13829,7 +13711,7 @@
         <v>36352.84170057723</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13862,7 +13744,7 @@
         <v>36061.02490057723</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13895,7 +13777,7 @@
         <v>37219.56210057723</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14159,7 +14041,7 @@
         <v>39680.75455948261</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14192,7 +14074,7 @@
         <v>39680.75455948261</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14225,7 +14107,7 @@
         <v>39607.41955948261</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14258,7 +14140,7 @@
         <v>39607.41955948261</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14291,7 +14173,7 @@
         <v>37804.54825948261</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14324,7 +14206,7 @@
         <v>37747.97695948261</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14423,7 +14305,7 @@
         <v>37589.43515948261</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -16403,7 +16285,7 @@
         <v>45605.07634009569</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16436,7 +16318,7 @@
         <v>45775.11564009569</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16469,7 +16351,7 @@
         <v>45775.11564009569</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16502,7 +16384,7 @@
         <v>45359.48814009569</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16535,7 +16417,7 @@
         <v>46798.41694009569</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16568,7 +16450,7 @@
         <v>46176.72161920845</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16601,7 +16483,7 @@
         <v>47083.17561920844</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16634,7 +16516,7 @@
         <v>46790.78291920845</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16667,7 +16549,7 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16700,7 +16582,7 @@
         <v>46880.99621920845</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16733,7 +16615,7 @@
         <v>47168.24991920845</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16766,7 +16648,7 @@
         <v>45936.65431920845</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16799,7 +16681,7 @@
         <v>45909.87241920845</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16832,7 +16714,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16865,7 +16747,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16898,7 +16780,7 @@
         <v>45959.61441920845</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16931,7 +16813,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16964,7 +16846,7 @@
         <v>46102.53451920845</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16997,7 +16879,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17030,7 +16912,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17063,7 +16945,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17096,7 +16978,7 @@
         <v>45942.53451920845</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17129,7 +17011,7 @@
         <v>46038.15641920845</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17162,7 +17044,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17195,7 +17077,7 @@
         <v>46945.82481920845</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17228,7 +17110,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17261,7 +17143,7 @@
         <v>46664.96421920845</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17294,7 +17176,7 @@
         <v>46702.25221920845</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17327,7 +17209,7 @@
         <v>46802.25221920845</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17360,7 +17242,7 @@
         <v>46573.94551920845</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17393,7 +17275,7 @@
         <v>46850.69972904147</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17426,7 +17308,7 @@
         <v>46847.76422904147</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17459,7 +17341,7 @@
         <v>46847.76422904147</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17492,7 +17374,7 @@
         <v>46839.15862904147</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17558,7 +17440,7 @@
         <v>47729.49102904147</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17591,7 +17473,7 @@
         <v>47729.49102904147</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -24950,7 +24832,7 @@
         <v>51269.45040795585</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24983,7 +24865,7 @@
         <v>51175.73470795585</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25016,7 +24898,7 @@
         <v>50538.85680795585</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25049,7 +24931,7 @@
         <v>53510.1199663662</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25082,7 +24964,7 @@
         <v>53171.7890663662</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25115,7 +24997,7 @@
         <v>54026.11060795584</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25148,7 +25030,7 @@
         <v>53296.5011495455</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25181,7 +25063,7 @@
         <v>51885.7206495455</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25214,7 +25096,7 @@
         <v>51497.0938495455</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25247,7 +25129,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25280,7 +25162,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25313,7 +25195,7 @@
         <v>51337.0666495455</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25346,7 +25228,7 @@
         <v>51163.8275495455</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25379,7 +25261,7 @@
         <v>51619.9837495455</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25412,7 +25294,7 @@
         <v>51263.2108495455</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25478,7 +25360,7 @@
         <v>50175.1972495455</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25709,7 +25591,7 @@
         <v>44297.8263495455</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
